--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -2261,10 +2261,10 @@
     <t>dist-init-conc-AD[e]</t>
   </si>
   <si>
+    <t>dist-init-conc-Adk_Protein[c]</t>
+  </si>
+  <si>
     <t>molar</t>
-  </si>
-  <si>
-    <t>dist-init-conc-Adk_Protein[c]</t>
   </si>
   <si>
     <t>evidence_002, evidence_003, evidence_004</t>
@@ -6595,11 +6595,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6654,10 +6654,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6671,14 +6680,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6694,7 +6695,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6702,9 +6710,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6716,15 +6724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6744,9 +6744,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6754,7 +6761,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6768,14 +6775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6796,37 +6796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6838,73 +6808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6916,43 +6826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6970,13 +6844,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6999,17 +6999,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7031,9 +7025,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7053,13 +7064,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7072,150 +7087,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12905,7 +12905,7 @@
   <sheetPr/>
   <dimension ref="A1:AML147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -20215,7 +20215,7 @@
         <v>1.81285794880199e-7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>1803</v>
@@ -20232,7 +20232,7 @@
         <v>0.0005</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>1805</v>
@@ -20249,7 +20249,7 @@
         <v>0.001</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>1805</v>
@@ -20532,7 +20532,7 @@
         <v>1833</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1834</v>
@@ -20598,7 +20598,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1834</v>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1834</v>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1834</v>
@@ -20819,7 +20819,7 @@
         <v>1871</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1872</v>
@@ -26300,7 +26300,6 @@
       <c r="E2" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
         <v>44</v>
       </c>
@@ -28947,12 +28946,12 @@
   <sheetPr/>
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -29015,13 +29014,13 @@
         <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000148</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0121655250605964</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>621</v>
+        <v>437</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -29039,7 +29038,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -29055,7 +29054,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -29083,7 +29082,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
@@ -29111,7 +29110,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -29139,7 +29138,7 @@
         <v>0.0852966587856758</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="13"/>
@@ -29169,7 +29168,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>448</v>
@@ -29197,7 +29196,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -29223,7 +29222,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -29249,7 +29248,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -29275,7 +29274,7 @@
         <v>0.0552760345900463</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -29305,7 +29304,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -29331,7 +29330,7 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -29359,7 +29358,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -29385,7 +29384,7 @@
         <v>0.0884286152780874</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -29415,7 +29414,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -29441,7 +29440,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -29467,7 +29466,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -29493,7 +29492,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -29519,7 +29518,7 @@
         <v>0.041232293243529</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -29549,7 +29548,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -29575,7 +29574,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -29601,7 +29600,7 @@
         <v>0.0564036346346581</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -29631,7 +29630,7 @@
         <v>0.0158113883008419</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -29659,7 +29658,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -29685,7 +29684,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -29711,7 +29710,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -29737,7 +29736,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -29763,7 +29762,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -29789,7 +29788,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -29815,7 +29814,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -29841,7 +29840,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -29867,7 +29866,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -29893,7 +29892,7 @@
         <v>0.234671205696025</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -29923,7 +29922,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -29949,7 +29948,7 @@
         <v>0.026741858574153</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -29979,7 +29978,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -30005,7 +30004,7 @@
         <v>0.116093066115079</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -30035,7 +30034,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -30061,7 +30060,7 @@
         <v>0.0884866656621211</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -30091,7 +30090,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -30117,7 +30116,7 @@
         <v>0.0115039123779695</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -30147,7 +30146,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -30173,7 +30172,7 @@
         <v>7.41619848709566</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -30199,7 +30198,7 @@
         <v>7.41619848709566</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -30229,7 +30228,7 @@
         <v>0.000105924501414923</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -30255,7 +30254,7 @@
         <v>0.000133352915228727</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -30283,7 +30282,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -30309,7 +30308,7 @@
         <v>0.048852226151937</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -30339,7 +30338,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -30365,7 +30364,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -30391,7 +30390,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -30417,7 +30416,7 @@
         <v>0.0637643317223665</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -30447,7 +30446,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -30473,7 +30472,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -30499,7 +30498,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -30525,7 +30524,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -30551,7 +30550,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -30577,7 +30576,7 @@
         <v>0.0884266362585392</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -30607,7 +30606,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -30633,7 +30632,7 @@
         <v>0.07939244296531</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -30663,7 +30662,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -30689,7 +30688,7 @@
         <v>0.0423670862816881</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -30719,7 +30718,7 @@
         <v>0.0022986278515671</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -30749,7 +30748,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -30775,7 +30774,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -30801,7 +30800,7 @@
         <v>0.0165230421060051</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -30831,7 +30830,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -30857,7 +30856,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -30883,7 +30882,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -30909,7 +30908,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -30935,7 +30934,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -30961,7 +30960,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -30987,7 +30986,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -31013,7 +31012,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -31039,7 +31038,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -31065,7 +31064,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -31091,7 +31090,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -31117,7 +31116,7 @@
         <v>0.0583425230856534</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -31147,7 +31146,7 @@
         <v>0.0707106781186547</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -31173,7 +31172,7 @@
         <v>0.14142135623731</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -31201,7 +31200,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -31227,7 +31226,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -31253,7 +31252,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -31279,7 +31278,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -31305,7 +31304,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -31331,7 +31330,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -31357,7 +31356,7 @@
         <v>0.0908145362813685</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -31387,7 +31386,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -31413,7 +31412,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -31439,7 +31438,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -31465,7 +31464,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -31491,7 +31490,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -31517,7 +31516,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -31543,7 +31542,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -31569,7 +31568,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -31595,7 +31594,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -31621,7 +31620,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -31647,7 +31646,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -31673,7 +31672,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -31699,7 +31698,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -31725,7 +31724,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -31751,7 +31750,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -31777,7 +31776,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -31803,7 +31802,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -31829,7 +31828,7 @@
         <v>0.0733218930470293</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -31859,7 +31858,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -31885,7 +31884,7 @@
         <v>0.0685924194062289</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -31915,7 +31914,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -31941,7 +31940,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -31967,7 +31966,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -31993,7 +31992,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -32019,7 +32018,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -32045,7 +32044,7 @@
         <v>0.0176965533367376</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -32075,7 +32074,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -32101,7 +32100,7 @@
         <v>0.0335489195057009</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -32131,7 +32130,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -32157,7 +32156,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -32183,7 +32182,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -32209,7 +32208,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -32235,7 +32234,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -32261,7 +32260,7 @@
         <v>0.0133578815685722</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -32291,7 +32290,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -32317,7 +32316,7 @@
         <v>0.00102050477705888</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -32347,7 +32346,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -32373,7 +32372,7 @@
         <v>0.0766225162729599</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>

--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="2081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="2079">
   <si>
     <t>Table</t>
   </si>
@@ -518,7 +518,7 @@
     <t>second</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>ns_1: id_1, ns_2: id_2</t>
@@ -6556,9 +6556,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Author 001</t>
   </si>
   <si>
@@ -6578,9 +6575,6 @@
   </si>
   <si>
     <t>Author_001 address</t>
-  </si>
-  <si>
-    <t>0123-4567-8901-2345</t>
   </si>
   <si>
     <t>Author_001 comments</t>
@@ -6648,13 +6642,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6714,37 +6708,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6758,6 +6731,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6771,16 +6759,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6808,45 +6826,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6875,19 +6862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6899,7 +6880,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6911,13 +6910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6929,43 +6922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6983,7 +6964,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6995,43 +7006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7043,13 +7030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7066,6 +7053,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7086,33 +7112,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7141,163 +7145,146 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7781,7 +7768,7 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22289,14 +22276,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -22304,7 +22291,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -22336,21 +22323,18 @@
         <v>2051</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2052</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1892</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1898</v>
@@ -22359,31 +22343,28 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2055</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>2058</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>2059</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2061</v>
       </c>
     </row>
   </sheetData>
@@ -22425,25 +22406,25 @@
         <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2063</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2065</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2066</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2068</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -22464,39 +22445,39 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2070</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2071</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2073</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2074</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2076</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2077</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2078</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>41</v>
@@ -22508,7 +22489,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>53</v>
@@ -22517,7 +22498,7 @@
         <v>1892</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Parameters" sheetId="15" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId18"/>
     <sheet name="Evidence" sheetId="17" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="20" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="20" r:id="rId20"/>
     <sheet name="References" sheetId="18" r:id="rId21"/>
     <sheet name="Authors" sheetId="21" r:id="rId22"/>
     <sheet name="Changes" sheetId="22" r:id="rId23"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="2021">
   <si>
     <t>Table</t>
   </si>
@@ -461,7 +461,7 @@
     <t>Evidence</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -590,7 +590,7 @@
     <t>evidence_001</t>
   </si>
   <si>
-    <t>interpretation_001</t>
+    <t>conclusion_001</t>
   </si>
   <si>
     <t>E.g., obj. fn.</t>
@@ -5749,10 +5749,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
+    <t>Data generation process</t>
+  </si>
+  <si>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -5884,10 +5884,13 @@
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Interpretation 001</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Conclusion 001</t>
   </si>
   <si>
     <t>0.1</t>
@@ -5896,16 +5899,16 @@
     <t>assumption</t>
   </si>
   <si>
-    <t>interpretation_001 method</t>
-  </si>
-  <si>
-    <t>interpretation_001 comments</t>
+    <t>conclusion_001 method</t>
+  </si>
+  <si>
+    <t>conclusion_001 comments</t>
   </si>
   <si>
     <t>Author_001</t>
   </si>
   <si>
-    <t>interpretation_002</t>
+    <t>conclusion_002</t>
   </si>
   <si>
     <t>10</t>
@@ -6425,9 +6428,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Change_001</t>
@@ -6468,11 +6468,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6539,8 +6539,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6548,7 +6563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6562,6 +6577,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6577,38 +6645,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6617,51 +6653,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6688,7 +6688,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6700,25 +6856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6730,145 +6868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6879,24 +6879,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6911,6 +6893,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6930,13 +6921,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6959,155 +6954,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7597,10 +7597,10 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -7842,7 +7842,7 @@
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
     <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
+    <hyperlink ref="A20" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
     <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
     <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
     <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
@@ -20629,7 +20629,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21097,14 +21097,14 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -21162,6 +21162,9 @@
       </c>
       <c r="M2" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:13">
@@ -21169,22 +21172,22 @@
         <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1792</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>582</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>41</v>
@@ -21193,24 +21196,24 @@
         <v>1804</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1792</v>
@@ -21219,10 +21222,10 @@
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
@@ -21291,46 +21294,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -21344,23 +21347,23 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>2008</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -21374,35 +21377,35 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>2014</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -21412,134 +21415,134 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>2004</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>2009</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>2007</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>1792</v>
@@ -21549,7 +21552,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="R6" s="1"/>
     </row>
@@ -21558,24 +21561,24 @@
         <v>1629</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>2001</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -21585,7 +21588,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -21594,26 +21597,26 @@
         <v>1643</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>2006</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -21623,37 +21626,37 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>1993</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>1792</v>
@@ -21662,119 +21665,119 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>2010</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>2000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1999</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -21782,58 +21785,58 @@
         <v>1792</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="R12" s="1"/>
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>1979</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="R13" s="1"/>
     </row>
@@ -21842,40 +21845,40 @@
         <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>2012</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="R14" s="1"/>
     </row>
@@ -21884,56 +21887,56 @@
         <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>2009</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="R15" s="1"/>
     </row>
     <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -21945,23 +21948,23 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="R16" s="1"/>
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -21973,23 +21976,23 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="R17" s="1"/>
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -22001,23 +22004,23 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="R18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -22029,7 +22032,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="R19" s="1"/>
     </row>
@@ -22039,13 +22042,13 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -22057,54 +22060,54 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" customHeight="1" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="F21" s="3">
         <v>2015</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="F22" s="3">
         <v>2018</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
   </sheetData>
@@ -22147,28 +22150,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -22179,40 +22182,40 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -22254,25 +22257,25 @@
         <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -22293,7 +22296,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>2009</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
@@ -22343,7 +22346,7 @@
         <v>53</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>2020</v>
@@ -22889,7 +22892,7 @@
   <sheetPr/>
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
+    <sheet name="!_Table of contents" sheetId="23" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
     <sheet name="Taxon" sheetId="2" r:id="rId3"/>
     <sheet name="Environment" sheetId="19" r:id="rId4"/>
@@ -37,7 +37,7 @@
     <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$U$4</definedName>
@@ -6490,11 +6490,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6562,15 +6562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6584,8 +6576,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6600,37 +6621,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6645,7 +6637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6653,14 +6645,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6675,10 +6660,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6686,6 +6678,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6710,7 +6710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6722,13 +6722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6746,13 +6752,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6764,7 +6842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6776,43 +6854,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6824,73 +6884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6901,21 +6901,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6939,6 +6924,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6973,22 +6969,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7004,132 +7004,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>

--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <externalReferences>
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
@@ -379,16 +379,16 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$H$5</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$U$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$N$145</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$C$1:$L$126</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$N$177</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$C$1:$L$147</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$K$96</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$R$22</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$5</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$145</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$C$1:$L$126</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$177</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$1:$L$147</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$K$96</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$R$22</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -1012,14 +1012,14 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,7 +1029,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="34" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1471,42 +1471,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="27" t="n"/>
@@ -1517,7 +1513,7 @@
     <row r="5">
       <c r="A5" s="27" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="27" t="n"/>
@@ -1528,220 +1524,231 @@
     <row r="6">
       <c r="A6" s="27" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="27" t="n"/>
       <c r="C6" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="27" t="n"/>
       <c r="C8" s="27" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="27" t="n"/>
       <c r="C9" s="27" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="27" t="n"/>
       <c r="C10" s="27" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="27" t="n"/>
       <c r="C14" s="27" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="27" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="27" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="27" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="27" t="n"/>
       <c r="C19" s="27" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="27" t="n"/>
       <c r="C21" s="27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="27" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="27" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="27" t="n"/>
       <c r="C23" s="27" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="27" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1801,7 +1808,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1999,7 +2006,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2213,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8969,7 +8976,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -15069,7 +15076,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15237,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -15412,7 +15419,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16592,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19135,7 +19142,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19288,7 +19295,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19798,7 +19805,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19982,7 +19989,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -20121,7 +20128,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -20371,7 +20378,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -21608,7 +21615,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -21767,7 +21774,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -21971,7 +21978,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -22079,7 +22086,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -22198,7 +22205,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22393,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -22724,7 +22731,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -27659,7 +27666,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -31818,7 +31825,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,359 +36,359 @@
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">Parameters!$A$18:$F$93</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_1">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$5</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$145</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$C$1:$L$126</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$177</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$1:$L$147</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$K$96</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$R$22</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$18:$F$93</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_1" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Model'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$U$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$N$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!Init species concentrations'!$C$1:$L$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$N$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$K$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$R$22</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -397,8 +397,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -907,276 +907,276 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165"/>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="19" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="34" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="48">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="48">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1187,7 +1187,7 @@
       <sheetName val="#REF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1457,28 +1457,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="C21" pane="bottomLeft" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="25" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="25" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="25" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="25" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1755,30 +1755,30 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A19" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A21" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1791,28 +1791,28 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="3" width="38.5666666666667"/>
-    <col customWidth="1" max="1026" min="4" style="3" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="1" max="2"/>
+    <col width="38.5666666666667" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="4" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>AXP_c</t>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
           <t>NDP_c</t>
@@ -1919,7 +1919,7 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="19" t="inlineStr">
         <is>
           <t>NMP_c</t>
@@ -1964,8 +1964,8 @@
       <c r="H6" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1986,31 +1986,31 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="8.5"/>
-    <col customWidth="1" max="2" min="2" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="3" width="25"/>
-    <col customWidth="1" max="4" min="4" style="3" width="12.25"/>
-    <col customWidth="1" max="1024" min="5" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" width="8.78333333333333"/>
+    <col width="8.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="2" max="2"/>
+    <col width="25" customWidth="1" style="3" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="5" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>func_1</t>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>func_2</t>
@@ -2172,8 +2172,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2194,37 +2194,37 @@
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="K2" pane="bottomRight" sqref="K2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="34.9166666666667"/>
-    <col customWidth="1" max="2" min="2" style="3" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="3" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="3" width="66.2"/>
-    <col customWidth="1" max="1027" min="5" style="3" width="8.78333333333333"/>
+    <col width="34.9166666666667" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="3" min="3" max="3"/>
+    <col width="66.2" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="5" max="1027"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="18" t="inlineStr">
         <is>
           <t>!Flux bounds</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AdnTransport</t>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AK_AMP</t>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="N5" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AK_GTP</t>
@@ -2437,7 +2437,7 @@
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>AlaAbcTransport</t>
@@ -2475,7 +2475,7 @@
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>APRT</t>
@@ -2513,7 +2513,7 @@
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ArgAbcTransport</t>
@@ -2551,7 +2551,7 @@
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AsnAbcTransport</t>
@@ -2589,7 +2589,7 @@
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>AspAbcTransport</t>
@@ -2627,7 +2627,7 @@
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>CmpK_CMP</t>
@@ -2665,7 +2665,7 @@
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>CO2Transport</t>
@@ -2703,7 +2703,7 @@
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>CysAbcTransport</t>
@@ -2741,7 +2741,7 @@
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>CytdTransport</t>
@@ -2779,7 +2779,7 @@
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Ala</t>
@@ -2817,7 +2817,7 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Arg</t>
@@ -2855,7 +2855,7 @@
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Asn</t>
@@ -2893,7 +2893,7 @@
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Asp</t>
@@ -2931,7 +2931,7 @@
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Cys</t>
@@ -2969,7 +2969,7 @@
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Gln</t>
@@ -3007,7 +3007,7 @@
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Glu</t>
@@ -3045,7 +3045,7 @@
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Gly</t>
@@ -3083,7 +3083,7 @@
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_His</t>
@@ -3121,7 +3121,7 @@
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Ile</t>
@@ -3159,7 +3159,7 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Leu</t>
@@ -3197,7 +3197,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Lys</t>
@@ -3235,7 +3235,7 @@
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Met</t>
@@ -3273,7 +3273,7 @@
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Phe</t>
@@ -3311,7 +3311,7 @@
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Pro</t>
@@ -3349,7 +3349,7 @@
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Ser</t>
@@ -3387,7 +3387,7 @@
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Thr</t>
@@ -3425,7 +3425,7 @@
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Trp</t>
@@ -3463,7 +3463,7 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Tyr</t>
@@ -3501,7 +3501,7 @@
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Dipeptidase_Val</t>
@@ -3539,7 +3539,7 @@
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Eno</t>
@@ -3577,7 +3577,7 @@
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Fba_FDP</t>
@@ -3615,7 +3615,7 @@
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>GapDH</t>
@@ -3653,7 +3653,7 @@
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>GlcPtsTransport</t>
@@ -3691,7 +3691,7 @@
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>GlnAbcTransport</t>
@@ -3729,7 +3729,7 @@
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>GluAbcTransport</t>
@@ -3767,7 +3767,7 @@
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GlyAbcTransport</t>
@@ -3805,7 +3805,7 @@
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>GnTransport</t>
@@ -3843,7 +3843,7 @@
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Gpm</t>
@@ -3881,7 +3881,7 @@
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GUK_GMP</t>
@@ -3919,7 +3919,7 @@
       <c r="M45" s="1" t="n"/>
       <c r="N45" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>H2OTransport</t>
@@ -3957,7 +3957,7 @@
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>HisAbcTransport</t>
@@ -3995,7 +3995,7 @@
       <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>HPRT</t>
@@ -4033,7 +4033,7 @@
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>HTransport</t>
@@ -4071,7 +4071,7 @@
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>IleAbcTransport</t>
@@ -4109,7 +4109,7 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>LacTransport</t>
@@ -4147,7 +4147,7 @@
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Ldh</t>
@@ -4185,7 +4185,7 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>LeuAbcTransport</t>
@@ -4223,7 +4223,7 @@
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>LysAbcTransport</t>
@@ -4261,7 +4261,7 @@
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>MetAbcTransport</t>
@@ -4299,7 +4299,7 @@
       <c r="M55" s="1" t="n"/>
       <c r="N55" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>NOX</t>
@@ -4337,7 +4337,7 @@
       <c r="M56" s="1" t="n"/>
       <c r="N56" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>O2Transport</t>
@@ -4375,7 +4375,7 @@
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Pfk_ATP</t>
@@ -4413,7 +4413,7 @@
       <c r="M58" s="1" t="n"/>
       <c r="N58" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Pfk_GTP</t>
@@ -4451,7 +4451,7 @@
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Pfk_UTP</t>
@@ -4489,7 +4489,7 @@
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Pgi</t>
@@ -4527,7 +4527,7 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Pgk_ATP</t>
@@ -4565,7 +4565,7 @@
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Pgk_GTP</t>
@@ -4603,7 +4603,7 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>PheAbcTransport</t>
@@ -4641,7 +4641,7 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransport</t>
@@ -4679,7 +4679,7 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Ppa</t>
@@ -4717,7 +4717,7 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>ProAbcTransport</t>
@@ -4755,7 +4755,7 @@
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>PRPS</t>
@@ -4793,7 +4793,7 @@
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Pyk_ATP</t>
@@ -4831,7 +4831,7 @@
       <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Pyk_CTP</t>
@@ -4869,7 +4869,7 @@
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Pyk_GTP</t>
@@ -4907,7 +4907,7 @@
       <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>PykUDP</t>
@@ -4945,7 +4945,7 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Adk</t>
@@ -4983,7 +4983,7 @@
       <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Apt</t>
@@ -5021,7 +5021,7 @@
       <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Cmk</t>
@@ -5059,7 +5059,7 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Eno</t>
@@ -5097,7 +5097,7 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Fba</t>
@@ -5135,7 +5135,7 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gap</t>
@@ -5173,7 +5173,7 @@
       <c r="M78" s="1" t="n"/>
       <c r="N78" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gk</t>
@@ -5211,7 +5211,7 @@
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Hpt</t>
@@ -5249,7 +5249,7 @@
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_LacA</t>
@@ -5287,7 +5287,7 @@
       <c r="M81" s="1" t="n"/>
       <c r="N81" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ldh</t>
@@ -5325,7 +5325,7 @@
       <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Nox</t>
@@ -5363,7 +5363,7 @@
       <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PeptAbcTransporter</t>
@@ -5401,7 +5401,7 @@
       <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pfk</t>
@@ -5439,7 +5439,7 @@
       <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PgiB</t>
@@ -5477,7 +5477,7 @@
       <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgk</t>
@@ -5515,7 +5515,7 @@
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgm</t>
@@ -5553,7 +5553,7 @@
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PiAbcTransporter</t>
@@ -5591,7 +5591,7 @@
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ppa</t>
@@ -5629,7 +5629,7 @@
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Prs</t>
@@ -5667,7 +5667,7 @@
       <c r="M91" s="1" t="n"/>
       <c r="N91" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pts</t>
@@ -5705,7 +5705,7 @@
       <c r="M92" s="1" t="n"/>
       <c r="N92" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pyk</t>
@@ -5743,7 +5743,7 @@
       <c r="M93" s="1" t="n"/>
       <c r="N93" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PyrH</t>
@@ -5781,7 +5781,7 @@
       <c r="M94" s="1" t="n"/>
       <c r="N94" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ribosome</t>
@@ -5819,7 +5819,7 @@
       <c r="M95" s="1" t="n"/>
       <c r="N95" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_RnaPolymerase</t>
@@ -5857,7 +5857,7 @@
       <c r="M96" s="1" t="n"/>
       <c r="N96" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rnase</t>
@@ -5895,7 +5895,7 @@
       <c r="M97" s="1" t="n"/>
       <c r="N97" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rpe</t>
@@ -5933,7 +5933,7 @@
       <c r="M98" s="1" t="n"/>
       <c r="N98" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Tim</t>
@@ -5971,7 +5971,7 @@
       <c r="M99" s="1" t="n"/>
       <c r="N99" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_TklB</t>
@@ -6009,7 +6009,7 @@
       <c r="M100" s="1" t="n"/>
       <c r="N100" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Udk</t>
@@ -6047,7 +6047,7 @@
       <c r="M101" s="1" t="n"/>
       <c r="N101" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Upp</t>
@@ -6085,7 +6085,7 @@
       <c r="M102" s="1" t="n"/>
       <c r="N102" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Rpe</t>
@@ -6123,7 +6123,7 @@
       <c r="M103" s="1" t="n"/>
       <c r="N103" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>RpiA</t>
@@ -6161,7 +6161,7 @@
       <c r="M104" s="1" t="n"/>
       <c r="N104" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>SerAbcTransport</t>
@@ -6199,7 +6199,7 @@
       <c r="M105" s="1" t="n"/>
       <c r="N105" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Tal</t>
@@ -6237,7 +6237,7 @@
       <c r="M106" s="1" t="n"/>
       <c r="N106" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>ThrAbcTransport</t>
@@ -6275,7 +6275,7 @@
       <c r="M107" s="1" t="n"/>
       <c r="N107" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>Tim</t>
@@ -6313,7 +6313,7 @@
       <c r="M108" s="1" t="n"/>
       <c r="N108" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Tkl_F6P</t>
@@ -6351,7 +6351,7 @@
       <c r="M109" s="1" t="n"/>
       <c r="N109" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P</t>
@@ -6389,7 +6389,7 @@
       <c r="M110" s="1" t="n"/>
       <c r="N110" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Transcription_Adk</t>
@@ -6427,7 +6427,7 @@
       <c r="M111" s="1" t="n"/>
       <c r="N111" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Transcription_Apt</t>
@@ -6465,7 +6465,7 @@
       <c r="M112" s="1" t="n"/>
       <c r="N112" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Transcription_Cmk</t>
@@ -6503,7 +6503,7 @@
       <c r="M113" s="1" t="n"/>
       <c r="N113" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Transcription_Eno</t>
@@ -6541,7 +6541,7 @@
       <c r="M114" s="1" t="n"/>
       <c r="N114" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Transcription_Fba</t>
@@ -6579,7 +6579,7 @@
       <c r="M115" s="1" t="n"/>
       <c r="N115" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gap</t>
@@ -6617,7 +6617,7 @@
       <c r="M116" s="1" t="n"/>
       <c r="N116" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gk</t>
@@ -6655,7 +6655,7 @@
       <c r="M117" s="1" t="n"/>
       <c r="N117" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Transcription_Hpt</t>
@@ -6693,7 +6693,7 @@
       <c r="M118" s="1" t="n"/>
       <c r="N118" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Transcription_LacA</t>
@@ -6731,7 +6731,7 @@
       <c r="M119" s="1" t="n"/>
       <c r="N119" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ldh</t>
@@ -6769,7 +6769,7 @@
       <c r="M120" s="1" t="n"/>
       <c r="N120" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Transcription_Nox</t>
@@ -6807,7 +6807,7 @@
       <c r="M121" s="1" t="n"/>
       <c r="N121" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Transcription_PeptAbcTransporter</t>
@@ -6845,7 +6845,7 @@
       <c r="M122" s="1" t="n"/>
       <c r="N122" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pfk</t>
@@ -6883,7 +6883,7 @@
       <c r="M123" s="1" t="n"/>
       <c r="N123" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Transcription_PgiB</t>
@@ -6921,7 +6921,7 @@
       <c r="M124" s="1" t="n"/>
       <c r="N124" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgk</t>
@@ -6959,7 +6959,7 @@
       <c r="M125" s="1" t="n"/>
       <c r="N125" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgm</t>
@@ -6997,7 +6997,7 @@
       <c r="M126" s="1" t="n"/>
       <c r="N126" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Transcription_PiAbcTransporter</t>
@@ -7035,7 +7035,7 @@
       <c r="M127" s="1" t="n"/>
       <c r="N127" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ppa</t>
@@ -7073,7 +7073,7 @@
       <c r="M128" s="1" t="n"/>
       <c r="N128" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Transcription_Prs</t>
@@ -7111,7 +7111,7 @@
       <c r="M129" s="1" t="n"/>
       <c r="N129" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pts</t>
@@ -7149,7 +7149,7 @@
       <c r="M130" s="1" t="n"/>
       <c r="N130" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pyk</t>
@@ -7187,7 +7187,7 @@
       <c r="M131" s="1" t="n"/>
       <c r="N131" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>Transcription_PyrH</t>
@@ -7225,7 +7225,7 @@
       <c r="M132" s="1" t="n"/>
       <c r="N132" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ribosome</t>
@@ -7263,7 +7263,7 @@
       <c r="M133" s="1" t="n"/>
       <c r="N133" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Transcription_RnaPolymerase</t>
@@ -7301,7 +7301,7 @@
       <c r="M134" s="1" t="n"/>
       <c r="N134" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rnase</t>
@@ -7339,7 +7339,7 @@
       <c r="M135" s="1" t="n"/>
       <c r="N135" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rpe</t>
@@ -7377,7 +7377,7 @@
       <c r="M136" s="1" t="n"/>
       <c r="N136" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Transcription_Tim</t>
@@ -7415,7 +7415,7 @@
       <c r="M137" s="1" t="n"/>
       <c r="N137" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Transcription_TklB</t>
@@ -7453,7 +7453,7 @@
       <c r="M138" s="1" t="n"/>
       <c r="N138" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Transcription_Udk</t>
@@ -7491,7 +7491,7 @@
       <c r="M139" s="1" t="n"/>
       <c r="N139" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Transcription_Upp</t>
@@ -7529,7 +7529,7 @@
       <c r="M140" s="1" t="n"/>
       <c r="N140" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Translation_Adk</t>
@@ -7567,7 +7567,7 @@
       <c r="M141" s="1" t="n"/>
       <c r="N141" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>Translation_Apt</t>
@@ -7605,7 +7605,7 @@
       <c r="M142" s="1" t="n"/>
       <c r="N142" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>Translation_Cmk</t>
@@ -7643,7 +7643,7 @@
       <c r="M143" s="1" t="n"/>
       <c r="N143" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>Translation_Eno</t>
@@ -7681,7 +7681,7 @@
       <c r="M144" s="1" t="n"/>
       <c r="N144" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>Translation_Fba</t>
@@ -7719,7 +7719,7 @@
       <c r="M145" s="1" t="n"/>
       <c r="N145" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>Translation_Gap</t>
@@ -7757,7 +7757,7 @@
       <c r="M146" s="1" t="n"/>
       <c r="N146" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
           <t>Translation_Gk</t>
@@ -7795,7 +7795,7 @@
       <c r="M147" s="1" t="n"/>
       <c r="N147" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="148">
+    <row r="148" ht="15.1" customHeight="1">
       <c r="A148" s="1" t="inlineStr">
         <is>
           <t>Translation_Hpt</t>
@@ -7833,7 +7833,7 @@
       <c r="M148" s="1" t="n"/>
       <c r="N148" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="149">
+    <row r="149" ht="15.1" customHeight="1">
       <c r="A149" s="1" t="inlineStr">
         <is>
           <t>Translation_LacA</t>
@@ -7871,7 +7871,7 @@
       <c r="M149" s="1" t="n"/>
       <c r="N149" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="150">
+    <row r="150" ht="15.1" customHeight="1">
       <c r="A150" s="1" t="inlineStr">
         <is>
           <t>Translation_Ldh</t>
@@ -7909,7 +7909,7 @@
       <c r="M150" s="1" t="n"/>
       <c r="N150" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="151">
+    <row r="151" ht="15.1" customHeight="1">
       <c r="A151" s="1" t="inlineStr">
         <is>
           <t>Translation_Nox</t>
@@ -7947,7 +7947,7 @@
       <c r="M151" s="1" t="n"/>
       <c r="N151" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="152">
+    <row r="152" ht="15.1" customHeight="1">
       <c r="A152" s="1" t="inlineStr">
         <is>
           <t>Translation_PeptAbcTransporter</t>
@@ -7985,7 +7985,7 @@
       <c r="M152" s="1" t="n"/>
       <c r="N152" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="153">
+    <row r="153" ht="15.1" customHeight="1">
       <c r="A153" s="1" t="inlineStr">
         <is>
           <t>Translation_Pfk</t>
@@ -8023,7 +8023,7 @@
       <c r="M153" s="1" t="n"/>
       <c r="N153" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="154">
+    <row r="154" ht="15.1" customHeight="1">
       <c r="A154" s="1" t="inlineStr">
         <is>
           <t>Translation_PgiB</t>
@@ -8061,7 +8061,7 @@
       <c r="M154" s="1" t="n"/>
       <c r="N154" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="155">
+    <row r="155" ht="15.1" customHeight="1">
       <c r="A155" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgk</t>
@@ -8099,7 +8099,7 @@
       <c r="M155" s="1" t="n"/>
       <c r="N155" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="156">
+    <row r="156" ht="15.1" customHeight="1">
       <c r="A156" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgm</t>
@@ -8137,7 +8137,7 @@
       <c r="M156" s="1" t="n"/>
       <c r="N156" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="157">
+    <row r="157" ht="15.1" customHeight="1">
       <c r="A157" s="1" t="inlineStr">
         <is>
           <t>Translation_PiAbcTransporter</t>
@@ -8175,7 +8175,7 @@
       <c r="M157" s="1" t="n"/>
       <c r="N157" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="158">
+    <row r="158" ht="15.1" customHeight="1">
       <c r="A158" s="1" t="inlineStr">
         <is>
           <t>Translation_Ppa</t>
@@ -8213,7 +8213,7 @@
       <c r="M158" s="1" t="n"/>
       <c r="N158" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="159">
+    <row r="159" ht="15.1" customHeight="1">
       <c r="A159" s="1" t="inlineStr">
         <is>
           <t>Translation_Prs</t>
@@ -8251,7 +8251,7 @@
       <c r="M159" s="1" t="n"/>
       <c r="N159" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="160">
+    <row r="160" ht="15.1" customHeight="1">
       <c r="A160" s="1" t="inlineStr">
         <is>
           <t>Translation_Pts</t>
@@ -8289,7 +8289,7 @@
       <c r="M160" s="1" t="n"/>
       <c r="N160" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="161">
+    <row r="161" ht="15.1" customHeight="1">
       <c r="A161" s="1" t="inlineStr">
         <is>
           <t>Translation_Pyk</t>
@@ -8327,7 +8327,7 @@
       <c r="M161" s="1" t="n"/>
       <c r="N161" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="162">
+    <row r="162" ht="15.1" customHeight="1">
       <c r="A162" s="1" t="inlineStr">
         <is>
           <t>Translation_PyrH</t>
@@ -8365,7 +8365,7 @@
       <c r="M162" s="1" t="n"/>
       <c r="N162" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="163">
+    <row r="163" ht="15.1" customHeight="1">
       <c r="A163" s="1" t="inlineStr">
         <is>
           <t>Translation_Ribosome</t>
@@ -8403,7 +8403,7 @@
       <c r="M163" s="1" t="n"/>
       <c r="N163" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="164">
+    <row r="164" ht="15.1" customHeight="1">
       <c r="A164" s="1" t="inlineStr">
         <is>
           <t>Translation_RnaPolymerase</t>
@@ -8441,7 +8441,7 @@
       <c r="M164" s="1" t="n"/>
       <c r="N164" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="165">
+    <row r="165" ht="15.1" customHeight="1">
       <c r="A165" s="1" t="inlineStr">
         <is>
           <t>Translation_Rnase</t>
@@ -8479,7 +8479,7 @@
       <c r="M165" s="1" t="n"/>
       <c r="N165" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="166">
+    <row r="166" ht="15.1" customHeight="1">
       <c r="A166" s="1" t="inlineStr">
         <is>
           <t>Translation_Rpe</t>
@@ -8517,7 +8517,7 @@
       <c r="M166" s="1" t="n"/>
       <c r="N166" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="167">
+    <row r="167" ht="15.1" customHeight="1">
       <c r="A167" s="1" t="inlineStr">
         <is>
           <t>Translation_Tim</t>
@@ -8555,7 +8555,7 @@
       <c r="M167" s="1" t="n"/>
       <c r="N167" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="168">
+    <row r="168" ht="15.1" customHeight="1">
       <c r="A168" s="1" t="inlineStr">
         <is>
           <t>Translation_TklB</t>
@@ -8593,7 +8593,7 @@
       <c r="M168" s="1" t="n"/>
       <c r="N168" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="169">
+    <row r="169" ht="15.1" customHeight="1">
       <c r="A169" s="1" t="inlineStr">
         <is>
           <t>Translation_Udk</t>
@@ -8631,7 +8631,7 @@
       <c r="M169" s="1" t="n"/>
       <c r="N169" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="170">
+    <row r="170" ht="15.1" customHeight="1">
       <c r="A170" s="1" t="inlineStr">
         <is>
           <t>Translation_Upp</t>
@@ -8669,7 +8669,7 @@
       <c r="M170" s="1" t="n"/>
       <c r="N170" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="171">
+    <row r="171" ht="15.1" customHeight="1">
       <c r="A171" s="1" t="inlineStr">
         <is>
           <t>TrpAbcTransport</t>
@@ -8701,7 +8701,7 @@
       <c r="M171" s="1" t="n"/>
       <c r="N171" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="172">
+    <row r="172" ht="15.1" customHeight="1">
       <c r="A172" s="1" t="inlineStr">
         <is>
           <t>TyrAbcTransport</t>
@@ -8733,7 +8733,7 @@
       <c r="M172" s="1" t="n"/>
       <c r="N172" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="173">
+    <row r="173" ht="15.1" customHeight="1">
       <c r="A173" s="1" t="inlineStr">
         <is>
           <t>Uck_CYTD</t>
@@ -8765,7 +8765,7 @@
       <c r="M173" s="1" t="n"/>
       <c r="N173" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="174">
+    <row r="174" ht="15.1" customHeight="1">
       <c r="A174" s="1" t="inlineStr">
         <is>
           <t>Uck_URI</t>
@@ -8797,7 +8797,7 @@
       <c r="M174" s="1" t="n"/>
       <c r="N174" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="175">
+    <row r="175" ht="15.1" customHeight="1">
       <c r="A175" s="1" t="inlineStr">
         <is>
           <t>UmpK</t>
@@ -8829,7 +8829,7 @@
       <c r="M175" s="1" t="n"/>
       <c r="N175" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="176">
+    <row r="176" ht="15.1" customHeight="1">
       <c r="A176" s="1" t="inlineStr">
         <is>
           <t>UPRT</t>
@@ -8861,7 +8861,7 @@
       <c r="M176" s="1" t="n"/>
       <c r="N176" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="177">
+    <row r="177" ht="15.1" customHeight="1">
       <c r="A177" s="1" t="inlineStr">
         <is>
           <t>UraTransport</t>
@@ -8937,8 +8937,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8951,36 +8951,36 @@
   <dimension ref="A1:AML148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="D118" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="38.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="8.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="4.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="43.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="5.25"/>
-    <col customWidth="1" max="9" min="8" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="10" min="10" style="1" width="22.6"/>
-    <col customWidth="1" max="1026" min="11" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="11" width="9"/>
+    <col width="38.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="4.875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="43.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="5.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="8" max="9"/>
+    <col width="22.6" customWidth="1" style="1" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="11" max="1026"/>
+    <col width="9" customWidth="1" style="11" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="2" s="11">
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customFormat="1" customHeight="1" s="11">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -9042,7 +9042,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="3" s="11">
+    <row r="3" ht="15.1" customFormat="1" customHeight="1" s="11">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>AK_AMP-backward</t>
@@ -10102,7 +10102,7 @@
       <c r="AMK3" s="1" t="n"/>
       <c r="AML3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AK_AMP-forward</t>
@@ -11154,7 +11154,7 @@
       <c r="AMK4" s="1" t="n"/>
       <c r="AML4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AK_GTP-forward</t>
@@ -11181,7 +11181,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AlaAbcTransport-forward</t>
@@ -11208,7 +11208,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>APRT-forward</t>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ArgAbcTransport-forward</t>
@@ -11262,7 +11262,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>AsnAbcTransport-forward</t>
@@ -11289,7 +11289,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AspAbcTransport-forward</t>
@@ -11316,7 +11316,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>CmpK_CMP-forward</t>
@@ -11343,7 +11343,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>CysAbcTransport-forward</t>
@@ -11370,7 +11370,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Eno-forward</t>
@@ -11397,7 +11397,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Fba_FDP-forward</t>
@@ -11424,7 +11424,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GapDH-forward</t>
@@ -11451,7 +11451,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GlcPtsTransport-forward</t>
@@ -11478,7 +11478,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GlnAbcTransport-forward</t>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GluAbcTransport-forward</t>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GlyAbcTransport-forward</t>
@@ -11559,7 +11559,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Gpm-forward</t>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GUK_GMP-forward</t>
@@ -11613,7 +11613,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>HisAbcTransport-forward</t>
@@ -11640,7 +11640,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>HPRT-forward</t>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>IleAbcTransport-forward</t>
@@ -11694,7 +11694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Ldh-forward</t>
@@ -11721,7 +11721,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>LeuAbcTransport-forward</t>
@@ -11748,7 +11748,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>LysAbcTransport-forward</t>
@@ -11775,7 +11775,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>MetAbcTransport-forward</t>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>NOX-forward</t>
@@ -11829,7 +11829,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Pfk_ATP-forward</t>
@@ -11856,7 +11856,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Pfk_GTP-forward</t>
@@ -11883,7 +11883,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Pfk_UTP-forward</t>
@@ -11910,7 +11910,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Pgi-forward</t>
@@ -11937,7 +11937,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Pgk_ATP-forward</t>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Pgk_GTP-forward</t>
@@ -11991,7 +11991,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>PheAbcTransport-forward</t>
@@ -12018,7 +12018,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransport-forward</t>
@@ -12045,7 +12045,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Ppa-forward</t>
@@ -12072,7 +12072,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>ProAbcTransport-forward</t>
@@ -12099,7 +12099,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>PRPS-forward</t>
@@ -12126,7 +12126,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Pyk_ATP-forward</t>
@@ -12153,7 +12153,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Pyk_CTP-forward</t>
@@ -12180,7 +12180,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Pyk_GTP-forward</t>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>PykUDP-forward</t>
@@ -12234,7 +12234,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Adk-forward</t>
@@ -12261,7 +12261,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Apt-forward</t>
@@ -12288,7 +12288,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Cmk-forward</t>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Eno-forward</t>
@@ -12342,7 +12342,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Fba-forward</t>
@@ -12369,7 +12369,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gap-forward</t>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gk-forward</t>
@@ -12423,7 +12423,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Hpt-forward</t>
@@ -12450,7 +12450,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_LacA-forward</t>
@@ -12477,7 +12477,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ldh-forward</t>
@@ -12504,7 +12504,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Nox-forward</t>
@@ -12531,7 +12531,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PeptAbcTransporter-forward</t>
@@ -12558,7 +12558,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pfk-forward</t>
@@ -12585,7 +12585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PgiB-forward</t>
@@ -12612,7 +12612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgk-forward</t>
@@ -12639,7 +12639,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgm-forward</t>
@@ -12666,7 +12666,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PiAbcTransporter-forward</t>
@@ -12693,7 +12693,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ppa-forward</t>
@@ -12720,7 +12720,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Prs-forward</t>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pts-forward</t>
@@ -12774,7 +12774,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pyk-forward</t>
@@ -12801,7 +12801,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PyrH-forward</t>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ribosome-forward</t>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_RnaPolymerase-forward</t>
@@ -12882,7 +12882,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rnase-forward</t>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rpe-forward</t>
@@ -12936,7 +12936,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Tim-forward</t>
@@ -12963,7 +12963,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_TklB-forward</t>
@@ -12990,7 +12990,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Udk-forward</t>
@@ -13017,7 +13017,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Upp-forward</t>
@@ -13044,7 +13044,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Rpe-forward</t>
@@ -13071,7 +13071,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RpiA-forward</t>
@@ -13098,7 +13098,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>SerAbcTransport-forward</t>
@@ -13125,7 +13125,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>ThrAbcTransport-forward</t>
@@ -13152,7 +13152,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>Tim-forward</t>
@@ -13179,7 +13179,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>Tkl_F6P-forward</t>
@@ -13206,7 +13206,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P-forward</t>
@@ -13233,7 +13233,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Transcription_Adk-forward</t>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Transcription_Apt-forward</t>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Transcription_Cmk-forward</t>
@@ -13314,7 +13314,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Transcription_Eno-forward</t>
@@ -13341,7 +13341,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Transcription_Fba-forward</t>
@@ -13368,7 +13368,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gap-forward</t>
@@ -13395,7 +13395,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gk-forward</t>
@@ -13422,7 +13422,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Transcription_Hpt-forward</t>
@@ -13449,7 +13449,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Transcription_LacA-forward</t>
@@ -13476,7 +13476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ldh-forward</t>
@@ -13503,7 +13503,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Transcription_Nox-forward</t>
@@ -13530,7 +13530,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Transcription_PeptAbcTransporter-forward</t>
@@ -13557,7 +13557,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pfk-forward</t>
@@ -13584,7 +13584,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Transcription_PgiB-forward</t>
@@ -13611,7 +13611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgk-forward</t>
@@ -13638,7 +13638,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgm-forward</t>
@@ -13665,7 +13665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Transcription_PiAbcTransporter-forward</t>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ppa-forward</t>
@@ -13719,7 +13719,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Transcription_Prs-forward</t>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pts-forward</t>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pyk-forward</t>
@@ -13800,7 +13800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Transcription_PyrH-forward</t>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ribosome-forward</t>
@@ -13854,7 +13854,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Transcription_RnaPolymerase-forward</t>
@@ -13881,7 +13881,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rnase-forward</t>
@@ -13908,7 +13908,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rpe-forward</t>
@@ -13935,7 +13935,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>Transcription_Tim-forward</t>
@@ -13962,7 +13962,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Transcription_TklB-forward</t>
@@ -13989,7 +13989,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Transcription_Udk-forward</t>
@@ -14016,7 +14016,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Transcription_Upp-forward</t>
@@ -14043,7 +14043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Translation_Adk-forward</t>
@@ -14070,7 +14070,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Translation_Apt-forward</t>
@@ -14097,7 +14097,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Translation_Cmk-forward</t>
@@ -14124,7 +14124,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Translation_Eno-forward</t>
@@ -14151,7 +14151,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Translation_Fba-forward</t>
@@ -14178,7 +14178,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Translation_Gap-forward</t>
@@ -14205,7 +14205,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Translation_Gk-forward</t>
@@ -14232,7 +14232,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Translation_Hpt-forward</t>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Translation_LacA-forward</t>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Translation_Ldh-forward</t>
@@ -14313,7 +14313,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Translation_Nox-forward</t>
@@ -14340,7 +14340,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Translation_PeptAbcTransporter-forward</t>
@@ -14367,7 +14367,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Translation_Pfk-forward</t>
@@ -14394,7 +14394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Translation_PgiB-forward</t>
@@ -14421,7 +14421,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgk-forward</t>
@@ -14448,7 +14448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgm-forward</t>
@@ -14475,7 +14475,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Translation_PiAbcTransporter-forward</t>
@@ -14502,7 +14502,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Translation_Ppa-forward</t>
@@ -14529,7 +14529,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>Translation_Prs-forward</t>
@@ -14556,7 +14556,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>Translation_Pts-forward</t>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>Translation_Pyk-forward</t>
@@ -14610,7 +14610,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Translation_PyrH-forward</t>
@@ -14637,7 +14637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Translation_Ribosome-forward</t>
@@ -14664,7 +14664,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Translation_RnaPolymerase-forward</t>
@@ -14691,7 +14691,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Translation_Rnase-forward</t>
@@ -14718,7 +14718,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Translation_Rpe-forward</t>
@@ -14745,7 +14745,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Translation_Tim-forward</t>
@@ -14772,7 +14772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Translation_TklB-forward</t>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Translation_Udk-forward</t>
@@ -14826,7 +14826,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Translation_Upp-forward</t>
@@ -14853,7 +14853,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>TrpAbcTransport-forward</t>
@@ -14880,7 +14880,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>TyrAbcTransport-forward</t>
@@ -14907,7 +14907,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>Uck_CYTD-forward</t>
@@ -14934,7 +14934,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>Uck_URI-forward</t>
@@ -14961,7 +14961,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>UmpK-forward</t>
@@ -14988,7 +14988,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
           <t>UPRT-forward</t>
@@ -15044,8 +15044,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L147"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -15058,29 +15058,29 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="22.6"/>
-    <col customWidth="1" max="3" min="2" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="1" width="47.5666666666667"/>
-    <col customWidth="1" max="1028" min="5" style="1" width="9.108333333333331"/>
+    <col width="22.6" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="2" max="3"/>
+    <col width="47.5666666666667" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="5" max="1028"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -15196,8 +15196,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -15218,30 +15218,30 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="17" width="20.25"/>
-    <col customWidth="1" max="2" min="2" style="17" width="26.1416666666667"/>
-    <col customWidth="1" max="9" min="3" style="17" width="11.25"/>
-    <col customWidth="1" max="10" min="10" style="17" width="10.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="17" width="8.78333333333333"/>
+    <col width="20.25" customWidth="1" style="17" min="1" max="1"/>
+    <col width="26.1416666666667" customWidth="1" style="17" min="2" max="2"/>
+    <col width="11.25" customWidth="1" style="17" min="3" max="9"/>
+    <col width="10.3916666666667" customWidth="1" style="17" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="17" min="11" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -15293,7 +15293,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Metabolism_net_rxn</t>
@@ -15380,8 +15380,8 @@
       <c r="I5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -15394,36 +15394,36 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="38.125"/>
-    <col customWidth="1" max="2" min="2" style="13" width="22.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="13" width="20.7833333333333"/>
-    <col customWidth="1" max="4" min="4" style="13" width="9.108333333333331"/>
-    <col customWidth="1" max="5" min="5" style="13" width="10.3916666666667"/>
-    <col customWidth="1" max="6" min="6" style="13" width="9.108333333333331"/>
-    <col customWidth="1" max="10" min="7" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="11" min="11" style="13" width="16.5"/>
-    <col customWidth="1" max="1023" min="12" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="1024" min="1024" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" style="10" width="8.78333333333333"/>
+    <col width="38.125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="22.3916666666667" customWidth="1" style="13" min="2" max="2"/>
+    <col width="20.7833333333333" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="4" max="4"/>
+    <col width="10.3916666666667" customWidth="1" style="13" min="5" max="5"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="7" max="10"/>
+    <col width="16.5" customWidth="1" style="13" min="11" max="11"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="12" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="1024" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" style="10" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -15480,7 +15480,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ALA[c]</t>
@@ -15520,7 +15520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-AMP[c]</t>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ARG[c]</t>
@@ -15580,7 +15580,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ASN[c]</t>
@@ -15627,7 +15627,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ASP[c]</t>
@@ -15657,7 +15657,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ATP[c]</t>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CMP[c]</t>
@@ -15717,7 +15717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CTP[c]</t>
@@ -15747,7 +15747,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CYS[c]</t>
@@ -15777,7 +15777,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GDP[c]</t>
@@ -15807,7 +15807,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLN[c]</t>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLU[c]</t>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLY[c]</t>
@@ -15897,7 +15897,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GMP[c]</t>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GTP[c]</t>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-H2O[c]</t>
@@ -15987,7 +15987,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-H[c]</t>
@@ -16017,7 +16017,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-HIS[c]</t>
@@ -16047,7 +16047,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ILE[c]</t>
@@ -16077,7 +16077,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-LEU[c]</t>
@@ -16107,7 +16107,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-LYS[c]</t>
@@ -16137,7 +16137,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-MET[c]</t>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PHE[c]</t>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-Pi[c]</t>
@@ -16227,7 +16227,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PPi[c]</t>
@@ -16257,7 +16257,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PRO[c]</t>
@@ -16287,7 +16287,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-SER[c]</t>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-THR[c]</t>
@@ -16347,7 +16347,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-TRP[c]</t>
@@ -16377,7 +16377,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-TYR[c]</t>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-UMP[c]</t>
@@ -16437,7 +16437,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-UTP[c]</t>
@@ -16467,7 +16467,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-VAL[c]</t>
@@ -16497,7 +16497,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Other_net_rxn-PPi[c]</t>
@@ -16558,8 +16558,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -16572,27 +16572,27 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="21.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.625"/>
-    <col customWidth="1" max="1026" min="5" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="11" width="9"/>
+    <col width="21.75" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="5" max="1026"/>
+    <col width="9" customWidth="1" style="11" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19108,8 +19108,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K96"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -19122,31 +19122,31 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="10" width="11.125"/>
-    <col customWidth="1" max="2" min="2" style="10" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="10" width="30"/>
-    <col customWidth="1" max="4" min="4" style="10" width="12.25"/>
-    <col customWidth="1" max="1024" min="5" style="10" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" width="8.78333333333333"/>
+    <col width="11.125" customWidth="1" style="10" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="10" min="2" max="2"/>
+    <col width="30" customWidth="1" style="10" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="10" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="10" min="5" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>stop_cond_1</t>
@@ -19256,8 +19256,8 @@
       <c r="I4" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -19278,28 +19278,28 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="J3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A6" pane="bottomRight" sqref="A6"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="14"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13.3916666666667"/>
-    <col customWidth="1" max="1034" min="3" style="1" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="3" max="1034"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="9" t="inlineStr">
         <is>
           <t>!Genotype</t>
@@ -19321,7 +19321,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -19438,7 +19438,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>observation_001</t>
@@ -19541,7 +19541,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>observation_001_a</t>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="I5" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>observation_001_b</t>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="I6" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>observation_001_c</t>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="I7" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>observation_002</t>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>observation_003</t>
@@ -19707,7 +19707,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>observation_004</t>
@@ -19768,8 +19768,8 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -19790,26 +19790,26 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B11" pane="topRight" sqref="B11:B12"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="13.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="3" width="51.525"/>
-    <col customWidth="1" max="1025" min="3" style="3" width="8.78333333333333"/>
+    <col width="13.3916666666667" customWidth="1" style="3" min="1" max="1"/>
+    <col width="51.525" customWidth="1" style="3" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="3" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -19821,7 +19821,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -19833,7 +19833,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
           <t>!Version</t>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="22" t="inlineStr">
         <is>
           <t>!URL</t>
@@ -19857,7 +19857,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="22" t="inlineStr">
         <is>
           <t>!Branch</t>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>!Revision</t>
@@ -19881,7 +19881,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="22" t="inlineStr">
         <is>
           <t>!wc_lang version</t>
@@ -19893,7 +19893,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="22" t="inlineStr">
         <is>
           <t>!Time units</t>
@@ -19905,7 +19905,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="22" t="inlineStr">
         <is>
           <t>!Identifiers</t>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="22" t="inlineStr">
         <is>
           <t>!Comments</t>
@@ -19929,7 +19929,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="22" t="inlineStr">
         <is>
           <t>!Created</t>
@@ -19956,10 +19956,10 @@
   </sheetData>
   <autoFilter ref="A1:B12"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://github.com/org/repo" ref="B4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="https://github.com/org/repo" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -19972,28 +19972,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="B5" pane="bottomRight" sqref="B5"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="14"/>
-    <col customWidth="1" max="3" min="2" style="1" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="1" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="1" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="4" max="1017"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20025,7 +20025,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>observation_set_001</t>
@@ -20047,7 +20047,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>observation_set_002</t>
@@ -20064,7 +20064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>observation_set_003</t>
@@ -20081,13 +20081,13 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6"/>
-    <row customHeight="1" ht="15.1" r="7"/>
-    <row customHeight="1" ht="15.1" r="8"/>
-    <row customHeight="1" ht="15.1" r="9"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -20108,38 +20108,38 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="J2" pane="bottomRight" sqref="J2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="14.75"/>
-    <col customWidth="1" max="5" min="3" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="6" min="6" style="1" width="25.625"/>
-    <col customWidth="1" max="1023" min="7" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="3" max="5"/>
+    <col width="25.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="7" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="8" t="inlineStr">
         <is>
           <t>!Process</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20211,7 +20211,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>conclusion_001</t>
@@ -20273,7 +20273,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>conclusion_002</t>
@@ -20310,23 +20310,23 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="4" t="n"/>
       <c r="D7" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="4" t="n"/>
       <c r="D8" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="4" t="n"/>
       <c r="D9" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="4" t="n"/>
       <c r="D10" s="4" t="n"/>
     </row>
@@ -20338,8 +20338,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -20360,25 +20360,25 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomRight" sqref="A2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="7" min="7" style="3" width="19.125"/>
-    <col customWidth="1" max="1025" min="8" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="6" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="1" max="6"/>
+    <col width="19.125" customWidth="1" style="3" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="8" max="1025"/>
+    <col width="9" customWidth="1" style="6" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -21583,11 +21583,11 @@
   </sheetData>
   <autoFilter ref="A1:R22"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="URL: http://book.bionumbers.org/what-is-the-density-of-cells/" ref="Q21" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="URL: https://water.usgs.gov/edu/density.html" ref="Q22" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q21" display="URL: http://book.bionumbers.org/what-is-the-density-of-cells/" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q22" display="URL: https://water.usgs.gov/edu/density.html" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -21600,22 +21600,22 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E3" pane="bottomRight" sqref="E3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="1" width="9"/>
+    <col width="9" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -21743,10 +21743,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="author@organization.edu" ref="H2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://www.organization.edu" ref="I2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" display="author@organization.edu" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I2" display="https://www.organization.edu" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -21759,22 +21759,22 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L3" pane="bottomRight" sqref="L3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="1" width="9"/>
+    <col width="9" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -21949,7 +21949,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -21962,27 +21962,27 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B6" pane="topRight" sqref="B6"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="1" width="29.775"/>
-    <col customWidth="1" max="1025" min="3" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="11" width="9"/>
+    <col width="10.3916666666667" customWidth="1" style="1" min="1" max="1"/>
+    <col width="29.775" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="3" max="1025"/>
+    <col width="9" customWidth="1" style="11" min="1026" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -21994,7 +21994,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
           <t>!Rank</t>
@@ -22018,7 +22018,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="22" t="inlineStr">
         <is>
           <t>!Identifiers</t>
@@ -22030,7 +22030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="22" t="inlineStr">
         <is>
           <t>!Comments</t>
@@ -22055,8 +22055,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -22069,24 +22069,24 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="C16" pane="topRight" sqref="C16"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18.375"/>
-    <col customWidth="1" max="1018" min="3" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="1019" min="1019" style="23" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1020" style="23" width="9"/>
+    <col width="18.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="3" max="1018"/>
+    <col width="8.78333333333333" customWidth="1" style="23" min="1019" max="1019"/>
+    <col width="9" customWidth="1" style="23" min="1020" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -22186,30 +22186,30 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E1" pane="bottomRight" sqref="E1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="3" width="13.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="3" width="10.925"/>
-    <col customWidth="1" max="7" min="4" style="3" width="11.675"/>
-    <col customWidth="1" max="8" min="8" style="3" width="11.3583333333333"/>
-    <col customWidth="1" max="1026" min="9" style="3" width="8.78333333333333"/>
+    <col width="13.3916666666667" customWidth="1" style="3" min="1" max="2"/>
+    <col width="10.925" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.675" customWidth="1" style="3" min="4" max="7"/>
+    <col width="11.3583333333333" customWidth="1" style="3" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="9" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -22251,7 +22251,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Metabolism</t>
@@ -22288,7 +22288,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation</t>
@@ -22310,7 +22310,7 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Transcription</t>
@@ -22356,8 +22356,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H5"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -22370,34 +22370,34 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="N3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="R2" pane="bottomRight" sqref="R2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="6.10833333333333"/>
-    <col customWidth="1" max="2" min="2" style="3" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="3" width="24.125"/>
-    <col customWidth="1" max="4" min="4" style="3" width="17.5"/>
-    <col customWidth="1" max="7" min="5" style="3" width="14.1416666666667"/>
-    <col customWidth="1" max="20" min="8" style="3" width="11.7833333333333"/>
-    <col customWidth="1" max="21" min="21" style="3" width="11.3583333333333"/>
-    <col customWidth="1" max="1032" min="22" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="1035" min="1033" width="8.78333333333333"/>
+    <col width="6.10833333333333" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="3" min="2" max="2"/>
+    <col width="24.125" customWidth="1" style="3" min="3" max="3"/>
+    <col width="17.5" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14.1416666666667" customWidth="1" style="3" min="5" max="7"/>
+    <col width="11.7833333333333" customWidth="1" style="3" min="8" max="20"/>
+    <col width="11.3583333333333" customWidth="1" style="3" min="21" max="21"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="22" max="1032"/>
+    <col width="8.78333333333333" customWidth="1" min="1033" max="1035"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="H2" s="21" t="inlineStr">
         <is>
           <t>!Initial volume</t>
@@ -22409,7 +22409,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -22516,7 +22516,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>c</t>
@@ -22701,8 +22701,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -22715,34 +22715,34 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="K2" pane="bottomRight" sqref="K2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="26.025"/>
-    <col customWidth="1" max="1028" min="2" style="3" width="8.78333333333333"/>
+    <col width="26.025" customWidth="1" style="3" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="2" max="1028"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="C2" s="21" t="inlineStr">
         <is>
           <t>!Structure</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -22814,7 +22814,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AD</t>
@@ -22861,7 +22861,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Adk_Protein</t>
@@ -22893,7 +22893,7 @@
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Adk_Rna</t>
@@ -22925,7 +22925,7 @@
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
@@ -22957,7 +22957,7 @@
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ALA</t>
@@ -22989,7 +22989,7 @@
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>AlaAla</t>
@@ -23029,7 +23029,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AMP</t>
@@ -23059,7 +23059,7 @@
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Apt_Protein</t>
@@ -23091,7 +23091,7 @@
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Apt_Rna</t>
@@ -23123,7 +23123,7 @@
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>ARG</t>
@@ -23155,7 +23155,7 @@
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>ArgArg</t>
@@ -23195,7 +23195,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>ASN</t>
@@ -23227,7 +23227,7 @@
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>AsnAsn</t>
@@ -23263,7 +23263,7 @@
       </c>
       <c r="N16" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>ASP</t>
@@ -23295,7 +23295,7 @@
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>AspAsp</t>
@@ -23335,7 +23335,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>ATP</t>
@@ -23367,7 +23367,7 @@
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>CDP</t>
@@ -23399,7 +23399,7 @@
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Cmk_Protein</t>
@@ -23431,7 +23431,7 @@
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Cmk_Rna</t>
@@ -23463,7 +23463,7 @@
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>CMP</t>
@@ -23493,7 +23493,7 @@
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
@@ -23533,7 +23533,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>CTP</t>
@@ -23565,7 +23565,7 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>CYS</t>
@@ -23597,7 +23597,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>CysCys</t>
@@ -23637,7 +23637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>CYTD</t>
@@ -23673,7 +23673,7 @@
       </c>
       <c r="N28" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DPG</t>
@@ -23705,7 +23705,7 @@
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>E4P</t>
@@ -23737,7 +23737,7 @@
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Eno_Protein</t>
@@ -23769,7 +23769,7 @@
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Eno_Rna</t>
@@ -23801,7 +23801,7 @@
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>F6P</t>
@@ -23833,7 +23833,7 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Fba_Protein</t>
@@ -23865,7 +23865,7 @@
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Fba_Rna</t>
@@ -23897,7 +23897,7 @@
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>FDP</t>
@@ -23929,7 +23929,7 @@
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>G2P</t>
@@ -23961,7 +23961,7 @@
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>G3P</t>
@@ -23993,7 +23993,7 @@
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>G6P</t>
@@ -24025,7 +24025,7 @@
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>Gap_Protein</t>
@@ -24057,7 +24057,7 @@
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Gap_Rna</t>
@@ -24089,7 +24089,7 @@
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GDP</t>
@@ -24121,7 +24121,7 @@
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Gk_Protein</t>
@@ -24153,7 +24153,7 @@
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Gk_Rna</t>
@@ -24185,7 +24185,7 @@
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GLC</t>
@@ -24225,7 +24225,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>GLN</t>
@@ -24257,7 +24257,7 @@
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>GlnGln</t>
@@ -24297,7 +24297,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>GLU</t>
@@ -24329,7 +24329,7 @@
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>GluGlu</t>
@@ -24369,7 +24369,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>GLY</t>
@@ -24401,7 +24401,7 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>GlyGly</t>
@@ -24441,7 +24441,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>GMP</t>
@@ -24473,7 +24473,7 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>GN</t>
@@ -24513,7 +24513,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>GTP</t>
@@ -24545,7 +24545,7 @@
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>H</t>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="N55" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
@@ -24621,7 +24621,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>HIS</t>
@@ -24653,7 +24653,7 @@
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>HisHis</t>
@@ -24693,7 +24693,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Hpt_Protein</t>
@@ -24725,7 +24725,7 @@
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Hpt_Rna</t>
@@ -24757,7 +24757,7 @@
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>ILE</t>
@@ -24789,7 +24789,7 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>IleIle</t>
@@ -24826,7 +24826,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>LAC</t>
@@ -24858,7 +24858,7 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>LacA_Protein</t>
@@ -24890,7 +24890,7 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>LacA_Rna</t>
@@ -24922,7 +24922,7 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Ldh_Protein</t>
@@ -24954,7 +24954,7 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Ldh_Rna</t>
@@ -24986,7 +24986,7 @@
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>LEU</t>
@@ -25018,7 +25018,7 @@
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>LeuLeu</t>
@@ -25058,7 +25058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>LYS</t>
@@ -25090,7 +25090,7 @@
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>LysLys</t>
@@ -25130,7 +25130,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>MET</t>
@@ -25162,7 +25162,7 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>MetMet</t>
@@ -25202,7 +25202,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>NAD</t>
@@ -25242,7 +25242,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>NADH</t>
@@ -25274,7 +25274,7 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Nox_Protein</t>
@@ -25306,7 +25306,7 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Nox_Rna</t>
@@ -25338,7 +25338,7 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>O2</t>
@@ -25378,7 +25378,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>PEP</t>
@@ -25410,7 +25410,7 @@
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Protein</t>
@@ -25442,7 +25442,7 @@
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Rna</t>
@@ -25474,7 +25474,7 @@
       <c r="M81" s="1" t="n"/>
       <c r="N81" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Pfk_Protein</t>
@@ -25506,7 +25506,7 @@
       <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Pfk_Rna</t>
@@ -25538,7 +25538,7 @@
       <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>PgiB_Protein</t>
@@ -25570,7 +25570,7 @@
       <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>PgiB_Rna</t>
@@ -25602,7 +25602,7 @@
       <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Pgk_Protein</t>
@@ -25634,7 +25634,7 @@
       <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Pgk_Rna</t>
@@ -25666,7 +25666,7 @@
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Pgm_Protein</t>
@@ -25698,7 +25698,7 @@
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Pgm_Rna</t>
@@ -25730,7 +25730,7 @@
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>PHE</t>
@@ -25762,7 +25762,7 @@
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>PhePhe</t>
@@ -25802,7 +25802,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Pi</t>
@@ -25838,7 +25838,7 @@
       </c>
       <c r="N92" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Protein</t>
@@ -25870,7 +25870,7 @@
       <c r="M93" s="1" t="n"/>
       <c r="N93" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Rna</t>
@@ -25902,7 +25902,7 @@
       <c r="M94" s="1" t="n"/>
       <c r="N94" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Ppa_Protein</t>
@@ -25934,7 +25934,7 @@
       <c r="M95" s="1" t="n"/>
       <c r="N95" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Ppa_Rna</t>
@@ -25966,7 +25966,7 @@
       <c r="M96" s="1" t="n"/>
       <c r="N96" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>PPi</t>
@@ -25998,7 +25998,7 @@
       <c r="M97" s="1" t="n"/>
       <c r="N97" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>PRO</t>
@@ -26030,7 +26030,7 @@
       <c r="M98" s="1" t="n"/>
       <c r="N98" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>ProPro</t>
@@ -26070,7 +26070,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>PRPP</t>
@@ -26102,7 +26102,7 @@
       <c r="M100" s="1" t="n"/>
       <c r="N100" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Prs_Protein</t>
@@ -26134,7 +26134,7 @@
       <c r="M101" s="1" t="n"/>
       <c r="N101" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Prs_Rna</t>
@@ -26166,7 +26166,7 @@
       <c r="M102" s="1" t="n"/>
       <c r="N102" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Pts_Protein</t>
@@ -26198,7 +26198,7 @@
       <c r="M103" s="1" t="n"/>
       <c r="N103" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Pts_Rna</t>
@@ -26230,7 +26230,7 @@
       <c r="M104" s="1" t="n"/>
       <c r="N104" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Pyk_Protein</t>
@@ -26262,7 +26262,7 @@
       <c r="M105" s="1" t="n"/>
       <c r="N105" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Pyk_Rna</t>
@@ -26294,7 +26294,7 @@
       <c r="M106" s="1" t="n"/>
       <c r="N106" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>PYR</t>
@@ -26326,7 +26326,7 @@
       <c r="M107" s="1" t="n"/>
       <c r="N107" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>PyrH_Protein</t>
@@ -26358,7 +26358,7 @@
       <c r="M108" s="1" t="n"/>
       <c r="N108" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>PyrH_Rna</t>
@@ -26390,7 +26390,7 @@
       <c r="M109" s="1" t="n"/>
       <c r="N109" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>R5P</t>
@@ -26422,7 +26422,7 @@
       <c r="M110" s="1" t="n"/>
       <c r="N110" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Ribosome_Protein</t>
@@ -26454,7 +26454,7 @@
       <c r="M111" s="1" t="n"/>
       <c r="N111" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Ribosome_Rna</t>
@@ -26486,7 +26486,7 @@
       <c r="M112" s="1" t="n"/>
       <c r="N112" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>RL5P</t>
@@ -26518,7 +26518,7 @@
       <c r="M113" s="1" t="n"/>
       <c r="N113" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>RnaPolymerase_Protein</t>
@@ -26550,7 +26550,7 @@
       <c r="M114" s="1" t="n"/>
       <c r="N114" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>RnaPolymerase_Rna</t>
@@ -26582,7 +26582,7 @@
       <c r="M115" s="1" t="n"/>
       <c r="N115" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Rnase_Protein</t>
@@ -26614,7 +26614,7 @@
       <c r="M116" s="1" t="n"/>
       <c r="N116" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Rnase_Rna</t>
@@ -26646,7 +26646,7 @@
       <c r="M117" s="1" t="n"/>
       <c r="N117" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Rpe_Protein</t>
@@ -26678,7 +26678,7 @@
       <c r="M118" s="1" t="n"/>
       <c r="N118" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Rpe_Rna</t>
@@ -26710,7 +26710,7 @@
       <c r="M119" s="1" t="n"/>
       <c r="N119" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>S7P</t>
@@ -26742,7 +26742,7 @@
       <c r="M120" s="1" t="n"/>
       <c r="N120" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>SER</t>
@@ -26774,7 +26774,7 @@
       <c r="M121" s="1" t="n"/>
       <c r="N121" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>SerSer</t>
@@ -26814,7 +26814,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>T3P1</t>
@@ -26846,7 +26846,7 @@
       <c r="M123" s="1" t="n"/>
       <c r="N123" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>T3P2</t>
@@ -26878,7 +26878,7 @@
       <c r="M124" s="1" t="n"/>
       <c r="N124" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>THR</t>
@@ -26910,7 +26910,7 @@
       <c r="M125" s="1" t="n"/>
       <c r="N125" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>ThrThr</t>
@@ -26950,7 +26950,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Tim_Protein</t>
@@ -26982,7 +26982,7 @@
       <c r="M127" s="1" t="n"/>
       <c r="N127" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Tim_Rna</t>
@@ -27014,7 +27014,7 @@
       <c r="M128" s="1" t="n"/>
       <c r="N128" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>TklB_Protein</t>
@@ -27046,7 +27046,7 @@
       <c r="M129" s="1" t="n"/>
       <c r="N129" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>TklB_Rna</t>
@@ -27078,7 +27078,7 @@
       <c r="M130" s="1" t="n"/>
       <c r="N130" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>TRP</t>
@@ -27110,7 +27110,7 @@
       <c r="M131" s="1" t="n"/>
       <c r="N131" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>TrpTrp</t>
@@ -27150,7 +27150,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>TYR</t>
@@ -27182,7 +27182,7 @@
       <c r="M133" s="1" t="n"/>
       <c r="N133" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>TyrTyr</t>
@@ -27222,7 +27222,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Udk_Protein</t>
@@ -27254,7 +27254,7 @@
       <c r="M135" s="1" t="n"/>
       <c r="N135" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Udk_Rna</t>
@@ -27286,7 +27286,7 @@
       <c r="M136" s="1" t="n"/>
       <c r="N136" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>UDP</t>
@@ -27318,7 +27318,7 @@
       <c r="M137" s="1" t="n"/>
       <c r="N137" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>UMP</t>
@@ -27350,7 +27350,7 @@
       <c r="M138" s="1" t="n"/>
       <c r="N138" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Upp_Protein</t>
@@ -27382,7 +27382,7 @@
       <c r="M139" s="1" t="n"/>
       <c r="N139" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Upp_Rna</t>
@@ -27414,7 +27414,7 @@
       <c r="M140" s="1" t="n"/>
       <c r="N140" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>URA</t>
@@ -27454,7 +27454,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>URI</t>
@@ -27486,7 +27486,7 @@
       <c r="M142" s="1" t="n"/>
       <c r="N142" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>UTP</t>
@@ -27526,7 +27526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>VAL</t>
@@ -27558,7 +27558,7 @@
       <c r="M144" s="1" t="n"/>
       <c r="N144" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>ValVal</t>
@@ -27635,8 +27635,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -27649,28 +27649,28 @@
   <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="28.7083333333333"/>
-    <col customWidth="1" max="10" min="2" style="3" width="16.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="3" width="9.108333333333331"/>
+    <col width="28.7083333333333" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="3" min="2" max="10"/>
+    <col width="9.108333333333331" customWidth="1" style="3" min="11" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -27722,7 +27722,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>AD[c]</t>
@@ -27764,7 +27764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>AD[e]</t>
@@ -27791,7 +27791,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Adk_Protein[c]</t>
@@ -27814,7 +27814,7 @@
       </c>
       <c r="I5" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Adk_Rna[c]</t>
@@ -27837,7 +27837,7 @@
       </c>
       <c r="I6" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>ADP[c]</t>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="I7" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>ALA[c]</t>
@@ -27883,7 +27883,7 @@
       </c>
       <c r="I8" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>AlaAla[c]</t>
@@ -27906,7 +27906,7 @@
       </c>
       <c r="I9" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>AlaAla[e]</t>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="I10" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>AMP[c]</t>
@@ -27958,7 +27958,7 @@
       <c r="G11" s="1" t="n"/>
       <c r="I11" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Apt_Protein[c]</t>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="I12" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Apt_Rna[c]</t>
@@ -28004,7 +28004,7 @@
       </c>
       <c r="I13" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t>ARG[c]</t>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="I14" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>ArgArg[c]</t>
@@ -28050,7 +28050,7 @@
       </c>
       <c r="I15" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t>ArgArg[e]</t>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="I16" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t>ASN[c]</t>
@@ -28096,7 +28096,7 @@
       </c>
       <c r="I17" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
           <t>AsnAsn[c]</t>
@@ -28119,7 +28119,7 @@
       </c>
       <c r="I18" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t>AsnAsn[e]</t>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="I19" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>ASP[c]</t>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="I20" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
           <t>AspAsp[c]</t>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="I21" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
           <t>AspAsp[e]</t>
@@ -28211,7 +28211,7 @@
       </c>
       <c r="I22" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
           <t>ATP[c]</t>
@@ -28234,7 +28234,7 @@
       </c>
       <c r="I23" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t>CDP[c]</t>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="I24" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Cmk_Protein[c]</t>
@@ -28280,7 +28280,7 @@
       </c>
       <c r="I25" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Cmk_Rna[c]</t>
@@ -28303,7 +28303,7 @@
       </c>
       <c r="I26" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
           <t>CMP[c]</t>
@@ -28332,7 +28332,7 @@
       <c r="G27" s="1" t="n"/>
       <c r="I27" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
           <t>CO2[c]</t>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="I28" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>CO2[e]</t>
@@ -28378,7 +28378,7 @@
       </c>
       <c r="I29" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>CTP[c]</t>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="I30" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>CYS[c]</t>
@@ -28424,7 +28424,7 @@
       </c>
       <c r="I31" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
           <t>CysCys[c]</t>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="I32" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t>CysCys[e]</t>
@@ -28470,7 +28470,7 @@
       </c>
       <c r="I33" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
           <t>CYTD[c]</t>
@@ -28493,7 +28493,7 @@
       </c>
       <c r="I34" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>CYTD[e]</t>
@@ -28516,7 +28516,7 @@
       </c>
       <c r="I35" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t>DPG[c]</t>
@@ -28539,7 +28539,7 @@
       </c>
       <c r="I36" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
           <t>E4P[c]</t>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="I37" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Eno_Protein[c]</t>
@@ -28585,7 +28585,7 @@
       </c>
       <c r="I38" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
           <t>Eno_Rna[c]</t>
@@ -28608,7 +28608,7 @@
       </c>
       <c r="I39" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
           <t>F6P[c]</t>
@@ -28631,7 +28631,7 @@
       </c>
       <c r="I40" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
           <t>Fba_Protein[c]</t>
@@ -28654,7 +28654,7 @@
       </c>
       <c r="I41" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
           <t>Fba_Rna[c]</t>
@@ -28677,7 +28677,7 @@
       </c>
       <c r="I42" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
           <t>FDP[c]</t>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="I43" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
           <t>G2P[c]</t>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="I44" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
           <t>G3P[c]</t>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="I45" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
           <t>G6P[c]</t>
@@ -28769,7 +28769,7 @@
       </c>
       <c r="I46" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
           <t>Gap_Protein[c]</t>
@@ -28792,7 +28792,7 @@
       </c>
       <c r="I47" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
           <t>Gap_Rna[c]</t>
@@ -28815,7 +28815,7 @@
       </c>
       <c r="I48" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
           <t>GDP[c]</t>
@@ -28838,7 +28838,7 @@
       </c>
       <c r="I49" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Gk_Protein[c]</t>
@@ -28861,7 +28861,7 @@
       </c>
       <c r="I50" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
           <t>Gk_Rna[c]</t>
@@ -28884,7 +28884,7 @@
       </c>
       <c r="I51" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
           <t>GLC[e]</t>
@@ -28907,7 +28907,7 @@
       </c>
       <c r="I52" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
           <t>GLN[c]</t>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="I53" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
           <t>GlnGln[c]</t>
@@ -28953,7 +28953,7 @@
       </c>
       <c r="I54" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
           <t>GlnGln[e]</t>
@@ -28976,7 +28976,7 @@
       </c>
       <c r="I55" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
           <t>GLU[c]</t>
@@ -28999,7 +28999,7 @@
       </c>
       <c r="I56" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
           <t>GluGlu[c]</t>
@@ -29022,7 +29022,7 @@
       </c>
       <c r="I57" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
           <t>GluGlu[e]</t>
@@ -29045,7 +29045,7 @@
       </c>
       <c r="I58" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
           <t>GLY[c]</t>
@@ -29068,7 +29068,7 @@
       </c>
       <c r="I59" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
           <t>GlyGly[c]</t>
@@ -29091,7 +29091,7 @@
       </c>
       <c r="I60" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
           <t>GlyGly[e]</t>
@@ -29114,7 +29114,7 @@
       </c>
       <c r="I61" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
           <t>GMP[c]</t>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="I62" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
           <t>GN[c]</t>
@@ -29160,7 +29160,7 @@
       </c>
       <c r="I63" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
           <t>GN[e]</t>
@@ -29183,7 +29183,7 @@
       </c>
       <c r="I64" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
           <t>GTP[c]</t>
@@ -29206,7 +29206,7 @@
       </c>
       <c r="I65" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
           <t>H2O[c]</t>
@@ -29229,7 +29229,7 @@
       </c>
       <c r="I66" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
           <t>H2O[e]</t>
@@ -29252,7 +29252,7 @@
       </c>
       <c r="I67" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
           <t>H[c]</t>
@@ -29275,7 +29275,7 @@
       </c>
       <c r="I68" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
           <t>H[e]</t>
@@ -29298,7 +29298,7 @@
       </c>
       <c r="I69" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
           <t>HIS[c]</t>
@@ -29321,7 +29321,7 @@
       </c>
       <c r="I70" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
           <t>HisHis[c]</t>
@@ -29344,7 +29344,7 @@
       </c>
       <c r="I71" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
           <t>HisHis[e]</t>
@@ -29367,7 +29367,7 @@
       </c>
       <c r="I72" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
           <t>Hpt_Protein[c]</t>
@@ -29390,7 +29390,7 @@
       </c>
       <c r="I73" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
           <t>Hpt_Rna[c]</t>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="I74" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
           <t>ILE[c]</t>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="I75" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
           <t>IleIle[c]</t>
@@ -29459,7 +29459,7 @@
       </c>
       <c r="I76" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
           <t>IleIle[e]</t>
@@ -29482,7 +29482,7 @@
       </c>
       <c r="I77" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
           <t>LAC[c]</t>
@@ -29505,7 +29505,7 @@
       </c>
       <c r="I78" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
           <t>LAC[e]</t>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="I79" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
           <t>LacA_Protein[c]</t>
@@ -29551,7 +29551,7 @@
       </c>
       <c r="I80" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
           <t>LacA_Rna[c]</t>
@@ -29574,7 +29574,7 @@
       </c>
       <c r="I81" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
           <t>Ldh_Protein[c]</t>
@@ -29597,7 +29597,7 @@
       </c>
       <c r="I82" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
           <t>Ldh_Rna[c]</t>
@@ -29620,7 +29620,7 @@
       </c>
       <c r="I83" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
           <t>LEU[c]</t>
@@ -29643,7 +29643,7 @@
       </c>
       <c r="I84" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
           <t>LeuLeu[c]</t>
@@ -29666,7 +29666,7 @@
       </c>
       <c r="I85" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
           <t>LeuLeu[e]</t>
@@ -29689,7 +29689,7 @@
       </c>
       <c r="I86" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
           <t>LYS[c]</t>
@@ -29712,7 +29712,7 @@
       </c>
       <c r="I87" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
           <t>LysLys[c]</t>
@@ -29735,7 +29735,7 @@
       </c>
       <c r="I88" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
           <t>LysLys[e]</t>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="I89" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
           <t>MET[c]</t>
@@ -29781,7 +29781,7 @@
       </c>
       <c r="I90" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
           <t>MetMet[c]</t>
@@ -29804,7 +29804,7 @@
       </c>
       <c r="I91" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
           <t>MetMet[e]</t>
@@ -29827,7 +29827,7 @@
       </c>
       <c r="I92" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
           <t>NAD[c]</t>
@@ -29850,7 +29850,7 @@
       </c>
       <c r="I93" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
           <t>NAD[e]</t>
@@ -29873,7 +29873,7 @@
       </c>
       <c r="I94" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
           <t>NADH[c]</t>
@@ -29896,7 +29896,7 @@
       </c>
       <c r="I95" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
           <t>Nox_Protein[c]</t>
@@ -29919,7 +29919,7 @@
       </c>
       <c r="I96" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
           <t>Nox_Rna[c]</t>
@@ -29942,7 +29942,7 @@
       </c>
       <c r="I97" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
           <t>O2[c]</t>
@@ -29965,7 +29965,7 @@
       </c>
       <c r="I98" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
           <t>O2[e]</t>
@@ -29988,7 +29988,7 @@
       </c>
       <c r="I99" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
           <t>PEP[c]</t>
@@ -30011,7 +30011,7 @@
       </c>
       <c r="I100" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Protein[c]</t>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="I101" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Rna[c]</t>
@@ -30057,7 +30057,7 @@
       </c>
       <c r="I102" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
           <t>Pfk_Protein[c]</t>
@@ -30080,7 +30080,7 @@
       </c>
       <c r="I103" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
           <t>Pfk_Rna[c]</t>
@@ -30103,7 +30103,7 @@
       </c>
       <c r="I104" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
           <t>PgiB_Protein[c]</t>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="I105" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
           <t>PgiB_Rna[c]</t>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="I106" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
           <t>Pgk_Protein[c]</t>
@@ -30172,7 +30172,7 @@
       </c>
       <c r="I107" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
           <t>Pgk_Rna[c]</t>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="I108" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
           <t>Pgm_Protein[c]</t>
@@ -30218,7 +30218,7 @@
       </c>
       <c r="I109" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
           <t>Pgm_Rna[c]</t>
@@ -30241,7 +30241,7 @@
       </c>
       <c r="I110" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
           <t>PHE[c]</t>
@@ -30264,7 +30264,7 @@
       </c>
       <c r="I111" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
           <t>PhePhe[c]</t>
@@ -30287,7 +30287,7 @@
       </c>
       <c r="I112" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
           <t>PhePhe[e]</t>
@@ -30310,7 +30310,7 @@
       </c>
       <c r="I113" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
           <t>Pi[c]</t>
@@ -30333,7 +30333,7 @@
       </c>
       <c r="I114" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
           <t>Pi[e]</t>
@@ -30356,7 +30356,7 @@
       </c>
       <c r="I115" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Protein[c]</t>
@@ -30379,7 +30379,7 @@
       </c>
       <c r="I116" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Rna[c]</t>
@@ -30402,7 +30402,7 @@
       </c>
       <c r="I117" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
           <t>Ppa_Protein[c]</t>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="I118" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
           <t>Ppa_Rna[c]</t>
@@ -30448,7 +30448,7 @@
       </c>
       <c r="I119" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
           <t>PPi[c]</t>
@@ -30471,7 +30471,7 @@
       </c>
       <c r="I120" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
           <t>PRO[c]</t>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="I121" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
           <t>ProPro[c]</t>
@@ -30517,7 +30517,7 @@
       </c>
       <c r="I122" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
           <t>ProPro[e]</t>
@@ -30540,7 +30540,7 @@
       </c>
       <c r="I123" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
           <t>PRPP[c]</t>
@@ -30563,7 +30563,7 @@
       </c>
       <c r="I124" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
           <t>Prs_Protein[c]</t>
@@ -30586,7 +30586,7 @@
       </c>
       <c r="I125" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
           <t>Prs_Rna[c]</t>
@@ -30609,7 +30609,7 @@
       </c>
       <c r="I126" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
           <t>Pts_Protein[c]</t>
@@ -30632,7 +30632,7 @@
       </c>
       <c r="I127" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
           <t>Pts_Rna[c]</t>
@@ -30655,7 +30655,7 @@
       </c>
       <c r="I128" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
           <t>Pyk_Protein[c]</t>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="I129" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
           <t>Pyk_Rna[c]</t>
@@ -30701,7 +30701,7 @@
       </c>
       <c r="I130" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
           <t>PYR[c]</t>
@@ -30724,7 +30724,7 @@
       </c>
       <c r="I131" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
           <t>PyrH_Protein[c]</t>
@@ -30747,7 +30747,7 @@
       </c>
       <c r="I132" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
           <t>PyrH_Rna[c]</t>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="I133" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
           <t>R5P[c]</t>
@@ -30793,7 +30793,7 @@
       </c>
       <c r="I134" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
           <t>Ribosome_Protein[c]</t>
@@ -30816,7 +30816,7 @@
       </c>
       <c r="I135" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
           <t>Ribosome_Rna[c]</t>
@@ -30839,7 +30839,7 @@
       </c>
       <c r="I136" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
           <t>RL5P[c]</t>
@@ -30862,7 +30862,7 @@
       </c>
       <c r="I137" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
           <t>RnaPolymerase_Protein[c]</t>
@@ -30885,7 +30885,7 @@
       </c>
       <c r="I138" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
           <t>RnaPolymerase_Rna[c]</t>
@@ -30908,7 +30908,7 @@
       </c>
       <c r="I139" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
           <t>Rnase_Protein[c]</t>
@@ -30931,7 +30931,7 @@
       </c>
       <c r="I140" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
           <t>Rnase_Rna[c]</t>
@@ -30954,7 +30954,7 @@
       </c>
       <c r="I141" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
           <t>Rpe_Protein[c]</t>
@@ -30977,7 +30977,7 @@
       </c>
       <c r="I142" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
           <t>Rpe_Rna[c]</t>
@@ -31000,7 +31000,7 @@
       </c>
       <c r="I143" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
           <t>S7P[c]</t>
@@ -31023,7 +31023,7 @@
       </c>
       <c r="I144" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
           <t>SER[c]</t>
@@ -31046,7 +31046,7 @@
       </c>
       <c r="I145" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
           <t>SerSer[c]</t>
@@ -31069,7 +31069,7 @@
       </c>
       <c r="I146" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
           <t>SerSer[e]</t>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="I147" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="148">
+    <row r="148" ht="15.1" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
           <t>T3P1[c]</t>
@@ -31115,7 +31115,7 @@
       </c>
       <c r="I148" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="149">
+    <row r="149" ht="15.1" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
           <t>T3P2[c]</t>
@@ -31138,7 +31138,7 @@
       </c>
       <c r="I149" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="150">
+    <row r="150" ht="15.1" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
           <t>THR[c]</t>
@@ -31161,7 +31161,7 @@
       </c>
       <c r="I150" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="151">
+    <row r="151" ht="15.1" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
           <t>ThrThr[c]</t>
@@ -31184,7 +31184,7 @@
       </c>
       <c r="I151" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="152">
+    <row r="152" ht="15.1" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
           <t>ThrThr[e]</t>
@@ -31207,7 +31207,7 @@
       </c>
       <c r="I152" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="153">
+    <row r="153" ht="15.1" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
           <t>Tim_Protein[c]</t>
@@ -31230,7 +31230,7 @@
       </c>
       <c r="I153" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="154">
+    <row r="154" ht="15.1" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
           <t>Tim_Rna[c]</t>
@@ -31253,7 +31253,7 @@
       </c>
       <c r="I154" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="155">
+    <row r="155" ht="15.1" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
           <t>TklB_Protein[c]</t>
@@ -31276,7 +31276,7 @@
       </c>
       <c r="I155" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="156">
+    <row r="156" ht="15.1" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
           <t>TklB_Rna[c]</t>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="I156" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="157">
+    <row r="157" ht="15.1" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
           <t>TRP[c]</t>
@@ -31322,7 +31322,7 @@
       </c>
       <c r="I157" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="158">
+    <row r="158" ht="15.1" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
           <t>TrpTrp[c]</t>
@@ -31345,7 +31345,7 @@
       </c>
       <c r="I158" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="159">
+    <row r="159" ht="15.1" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
           <t>TrpTrp[e]</t>
@@ -31368,7 +31368,7 @@
       </c>
       <c r="I159" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="160">
+    <row r="160" ht="15.1" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
           <t>TYR[c]</t>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="I160" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="161">
+    <row r="161" ht="15.1" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
           <t>TyrTyr[c]</t>
@@ -31414,7 +31414,7 @@
       </c>
       <c r="I161" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="162">
+    <row r="162" ht="15.1" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
           <t>TyrTyr[e]</t>
@@ -31437,7 +31437,7 @@
       </c>
       <c r="I162" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="163">
+    <row r="163" ht="15.1" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
           <t>Udk_Protein[c]</t>
@@ -31460,7 +31460,7 @@
       </c>
       <c r="I163" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="164">
+    <row r="164" ht="15.1" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
           <t>Udk_Rna[c]</t>
@@ -31483,7 +31483,7 @@
       </c>
       <c r="I164" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="165">
+    <row r="165" ht="15.1" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
           <t>UDP[c]</t>
@@ -31506,7 +31506,7 @@
       </c>
       <c r="I165" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="166">
+    <row r="166" ht="15.1" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
           <t>UMP[c]</t>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="I166" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="167">
+    <row r="167" ht="15.1" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
           <t>Upp_Protein[c]</t>
@@ -31552,7 +31552,7 @@
       </c>
       <c r="I167" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="168">
+    <row r="168" ht="15.1" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
           <t>Upp_Rna[c]</t>
@@ -31575,7 +31575,7 @@
       </c>
       <c r="I168" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="169">
+    <row r="169" ht="15.1" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
           <t>URA[c]</t>
@@ -31598,7 +31598,7 @@
       </c>
       <c r="I169" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="170">
+    <row r="170" ht="15.1" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
           <t>URA[e]</t>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="I170" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="171">
+    <row r="171" ht="15.1" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
           <t>URI[c]</t>
@@ -31644,7 +31644,7 @@
       </c>
       <c r="I171" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="172">
+    <row r="172" ht="15.1" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
           <t>UTP[c]</t>
@@ -31667,7 +31667,7 @@
       </c>
       <c r="I172" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="173">
+    <row r="173" ht="15.1" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
           <t>UTP[e]</t>
@@ -31690,7 +31690,7 @@
       </c>
       <c r="I173" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="174">
+    <row r="174" ht="15.1" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
           <t>VAL[c]</t>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="I174" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="175">
+    <row r="175" ht="15.1" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
           <t>ValVal[c]</t>
@@ -31736,7 +31736,7 @@
       </c>
       <c r="I175" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="176">
+    <row r="176" ht="15.1" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
           <t>ValVal[e]</t>
@@ -31783,8 +31783,8 @@
       <c r="I177" s="28" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -31805,27 +31805,27 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="D2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="36.875"/>
-    <col customWidth="1" max="2" min="2" style="3" width="9.108333333333331"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.1666666666667"/>
-    <col customWidth="1" max="4" min="4" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="5" style="3" width="12.625"/>
-    <col customWidth="1" max="1026" min="7" style="3" width="8.78333333333333"/>
+    <col width="36.875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="3" min="2" max="2"/>
+    <col width="31.1666666666667" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="3" min="5" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="7" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -36394,7 +36394,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L126"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/sbml-io.xlsx
+++ b/tests/fixtures/sbml-io.xlsx
@@ -1808,7 +1808,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -15076,7 +15076,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -15419,7 +15419,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19142,7 +19142,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -19989,7 +19989,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -20128,7 +20128,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -20378,7 +20378,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -21615,7 +21615,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -21774,7 +21774,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -21978,7 +21978,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -22205,7 +22205,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -22393,7 +22393,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -22731,7 +22731,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27666,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -31825,7 +31825,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
